--- a/data/trans_orig/P6712-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{070AD1AA-C4F3-4313-8696-1CC02108E841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30BC9521-5C8B-426C-AD44-C003E56501CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D714880-E5A2-41CD-B889-98DF2367454B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3CB90DB-05ED-4163-8DFC-BF63EBB32796}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="357">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -75,1051 +75,1039 @@
     <t>3,92%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que tenga iniciativa en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que tenga iniciativa en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>23,64%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>26,8%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>29,15%</t>
   </si>
   <si>
     <t>37,27%</t>
   </si>
   <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
   <si>
     <t>35,61%</t>
   </si>
   <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
   </si>
   <si>
     <t>36,57%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4150B786-81FD-45FD-BF0E-4C8292CA4A28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E637E63F-59E0-4F80-BEFD-6DFF6D2B2974}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1966,10 +1954,10 @@
         <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -1978,13 +1966,13 @@
         <v>25750</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -1993,13 +1981,13 @@
         <v>70754</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +2002,13 @@
         <v>41664</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -2029,13 +2017,13 @@
         <v>28193</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>65</v>
@@ -2044,13 +2032,13 @@
         <v>69857</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2053,13 @@
         <v>165242</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>106</v>
@@ -2080,13 +2068,13 @@
         <v>113393</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>265</v>
@@ -2095,13 +2083,13 @@
         <v>278635</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2104,13 @@
         <v>225121</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>158</v>
@@ -2131,13 +2119,13 @@
         <v>170858</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>374</v>
@@ -2146,13 +2134,13 @@
         <v>395979</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2155,13 @@
         <v>435528</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>219</v>
@@ -2182,13 +2170,13 @@
         <v>231567</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>626</v>
@@ -2197,13 +2185,13 @@
         <v>667095</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,7 +2247,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2271,13 +2259,13 @@
         <v>7366</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2286,13 +2274,13 @@
         <v>6021</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -2301,13 +2289,13 @@
         <v>13387</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2310,13 @@
         <v>12122</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2337,13 +2325,13 @@
         <v>4917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -2352,13 +2340,13 @@
         <v>17039</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2361,13 @@
         <v>27441</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -2388,13 +2376,13 @@
         <v>29337</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -2403,13 +2391,13 @@
         <v>56778</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2412,13 @@
         <v>67516</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -2439,13 +2427,13 @@
         <v>50058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -2454,13 +2442,13 @@
         <v>117573</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2463,13 @@
         <v>201812</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -2490,13 +2478,13 @@
         <v>142572</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>307</v>
@@ -2505,13 +2493,13 @@
         <v>344384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2567,13 @@
         <v>59544</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -2594,13 +2582,13 @@
         <v>42872</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -2609,13 +2597,13 @@
         <v>102416</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2618,13 @@
         <v>66341</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -2645,13 +2633,13 @@
         <v>39618</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>96</v>
@@ -2660,13 +2648,13 @@
         <v>105959</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2669,13 @@
         <v>221514</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
@@ -2696,13 +2684,13 @@
         <v>163052</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>358</v>
@@ -2711,13 +2699,13 @@
         <v>384566</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2720,13 @@
         <v>333062</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>222</v>
@@ -2747,13 +2735,13 @@
         <v>242827</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="M25" s="7">
         <v>545</v>
@@ -2762,13 +2750,13 @@
         <v>575889</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2771,13 @@
         <v>731459</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>421</v>
@@ -2798,13 +2786,13 @@
         <v>452182</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>1098</v>
@@ -2813,13 +2801,13 @@
         <v>1183641</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,7 +2863,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +2882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3317AB6-1754-4F8F-9E9C-53D946EDB53C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F292574A-424C-4139-B7B3-EBEF155C4CEA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2911,7 +2899,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3018,13 +3006,13 @@
         <v>16605</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3033,13 +3021,13 @@
         <v>8150</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3048,13 +3036,13 @@
         <v>24754</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3057,13 @@
         <v>16930</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3084,13 +3072,13 @@
         <v>7898</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -3099,13 +3087,13 @@
         <v>24828</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3108,13 @@
         <v>32138</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3135,10 +3123,10 @@
         <v>23977</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>216</v>
@@ -3150,13 +3138,13 @@
         <v>56114</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3159,13 @@
         <v>30738</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3186,13 +3174,13 @@
         <v>13664</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -3201,13 +3189,13 @@
         <v>44401</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3210,13 @@
         <v>46708</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -3237,13 +3225,13 @@
         <v>18399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -3252,13 +3240,13 @@
         <v>65107</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3314,13 @@
         <v>43544</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3341,7 +3329,7 @@
         <v>38819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>239</v>
@@ -3434,7 +3422,7 @@
         <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -3443,13 +3431,13 @@
         <v>153283</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>353</v>
@@ -3458,13 +3446,13 @@
         <v>366217</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3467,13 @@
         <v>277830</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -3494,13 +3482,13 @@
         <v>199941</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>461</v>
@@ -3509,13 +3497,13 @@
         <v>477772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3518,13 @@
         <v>308027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>179</v>
@@ -3545,13 +3533,13 @@
         <v>189722</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>464</v>
@@ -3560,13 +3548,13 @@
         <v>497749</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3634,13 +3622,13 @@
         <v>7999</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3649,13 +3637,13 @@
         <v>10831</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3664,13 +3652,13 @@
         <v>18830</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3673,13 @@
         <v>23934</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -3700,13 +3688,13 @@
         <v>22820</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3715,13 +3703,13 @@
         <v>46753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3724,13 @@
         <v>60815</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -3751,13 +3739,13 @@
         <v>51670</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>103</v>
@@ -3766,13 +3754,13 @@
         <v>112485</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3775,13 @@
         <v>83794</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -3802,13 +3790,13 @@
         <v>63324</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -3817,13 +3805,13 @@
         <v>147118</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3826,13 @@
         <v>174066</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>153</v>
@@ -3853,13 +3841,13 @@
         <v>159808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>314</v>
@@ -3868,13 +3856,13 @@
         <v>333874</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3930,13 @@
         <v>68148</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -3957,13 +3945,13 @@
         <v>57800</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -3972,13 +3960,13 @@
         <v>125948</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3981,13 @@
         <v>123726</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
         <v>103</v>
@@ -4008,13 +3996,13 @@
         <v>101727</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="M23" s="7">
         <v>218</v>
@@ -4023,13 +4011,13 @@
         <v>225454</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4032,13 @@
         <v>305887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H24" s="7">
         <v>229</v>
@@ -4059,13 +4047,13 @@
         <v>228930</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>511</v>
@@ -4074,13 +4062,13 @@
         <v>534816</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4083,13 @@
         <v>392362</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>271</v>
@@ -4110,13 +4098,13 @@
         <v>276929</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>645</v>
@@ -4125,13 +4113,13 @@
         <v>669291</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4134,13 @@
         <v>528801</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>350</v>
@@ -4161,13 +4149,13 @@
         <v>367929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M26" s="7">
         <v>838</v>
@@ -4176,13 +4164,13 @@
         <v>896730</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,7 +4226,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6712-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30BC9521-5C8B-426C-AD44-C003E56501CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D46D45-AA53-4739-B8F3-CD443A5B2CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3CB90DB-05ED-4163-8DFC-BF63EBB32796}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F162C305-F957-45C6-8C44-27E845175C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="359">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -75,1039 +75,1045 @@
     <t>3,92%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,42%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que tenga iniciativa en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que tenga iniciativa en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E637E63F-59E0-4F80-BEFD-6DFF6D2B2974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920BED5A-D514-4B13-B404-027E7F746144}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1763,10 +1769,10 @@
         <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>44</v>
@@ -1775,19 +1781,19 @@
         <v>49153</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>39</v>
@@ -1796,13 +1802,13 @@
         <v>40426</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -1811,13 +1817,13 @@
         <v>21910</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -1826,19 +1832,19 @@
         <v>62336</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>92</v>
@@ -1847,13 +1853,13 @@
         <v>94118</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>73</v>
@@ -1862,13 +1868,13 @@
         <v>78043</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>165</v>
@@ -1877,13 +1883,13 @@
         <v>172161</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,13 +1904,13 @@
         <v>183104</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>128</v>
@@ -1913,13 +1919,13 @@
         <v>137885</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>303</v>
@@ -1928,18 +1934,18 @@
         <v>320989</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1951,10 +1957,10 @@
         <v>45003</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>63</v>
@@ -2095,7 +2101,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>216</v>
@@ -2146,7 +2152,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>407</v>
@@ -2206,13 +2212,13 @@
         <v>912558</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>533</v>
@@ -2221,13 +2227,13 @@
         <v>569762</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1397</v>
@@ -2236,13 +2242,13 @@
         <v>1482320</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2316,13 @@
         <v>12122</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2325,13 +2331,13 @@
         <v>4917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -2340,13 +2346,13 @@
         <v>17039</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2367,13 @@
         <v>27441</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -2376,13 +2382,13 @@
         <v>29337</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -2391,19 +2397,19 @@
         <v>56778</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>68</v>
@@ -2412,13 +2418,13 @@
         <v>67516</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -2427,13 +2433,13 @@
         <v>50058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -2442,19 +2448,19 @@
         <v>117573</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>178</v>
@@ -2463,13 +2469,13 @@
         <v>201812</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -2478,13 +2484,13 @@
         <v>142572</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>307</v>
@@ -2493,13 +2499,13 @@
         <v>344384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2520,13 @@
         <v>316257</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>208</v>
@@ -2529,13 +2535,13 @@
         <v>232904</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>494</v>
@@ -2544,13 +2550,13 @@
         <v>549161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2573,13 @@
         <v>59544</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -2582,10 +2588,10 @@
         <v>42872</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>155</v>
@@ -2618,13 +2624,13 @@
         <v>66341</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -2633,13 +2639,13 @@
         <v>39618</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
         <v>96</v>
@@ -2648,13 +2654,13 @@
         <v>105959</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2675,13 @@
         <v>221514</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
@@ -2684,13 +2690,13 @@
         <v>163052</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>358</v>
@@ -2699,19 +2705,19 @@
         <v>384566</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>323</v>
@@ -2720,13 +2726,13 @@
         <v>333062</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>222</v>
@@ -2735,13 +2741,13 @@
         <v>242827</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>545</v>
@@ -2750,19 +2756,19 @@
         <v>575889</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>677</v>
@@ -2771,13 +2777,13 @@
         <v>731459</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>421</v>
@@ -2786,13 +2792,13 @@
         <v>452182</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>1098</v>
@@ -2801,13 +2807,13 @@
         <v>1183641</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2828,13 @@
         <v>1411920</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>869</v>
@@ -2837,13 +2843,13 @@
         <v>940551</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2194</v>
@@ -2852,18 +2858,18 @@
         <v>2352471</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2882,7 +2888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F292574A-424C-4139-B7B3-EBEF155C4CEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7BB4B5-C2FB-454A-B019-50898C8C6E0D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2899,7 +2905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3006,13 +3012,13 @@
         <v>16605</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3021,13 +3027,13 @@
         <v>8150</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3036,13 +3042,13 @@
         <v>24754</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3063,13 @@
         <v>16930</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3072,13 +3078,13 @@
         <v>7898</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -3087,13 +3093,13 @@
         <v>24828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3114,13 @@
         <v>32138</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3123,13 +3129,13 @@
         <v>23977</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M6" s="7">
         <v>55</v>
@@ -3138,19 +3144,19 @@
         <v>56114</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>30</v>
@@ -3159,13 +3165,13 @@
         <v>30738</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3174,13 +3180,13 @@
         <v>13664</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -3189,19 +3195,19 @@
         <v>44401</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>42</v>
@@ -3210,13 +3216,13 @@
         <v>46708</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -3225,13 +3231,13 @@
         <v>18399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -3240,13 +3246,13 @@
         <v>65107</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3267,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3276,13 +3282,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3291,18 +3297,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3317,10 +3323,10 @@
         <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3329,13 +3335,13 @@
         <v>38819</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -3344,13 +3350,13 @@
         <v>82363</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3371,13 @@
         <v>82863</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>72</v>
@@ -3380,13 +3386,13 @@
         <v>71010</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -3395,13 +3401,13 @@
         <v>153872</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3422,13 @@
         <v>212933</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -3431,13 +3437,13 @@
         <v>153283</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M12" s="7">
         <v>353</v>
@@ -3446,19 +3452,19 @@
         <v>366217</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>266</v>
@@ -3467,13 +3473,13 @@
         <v>277830</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -3482,13 +3488,13 @@
         <v>199941</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>461</v>
@@ -3497,10 +3503,10 @@
         <v>477772</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>267</v>
@@ -3509,7 +3515,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>285</v>
@@ -3569,13 +3575,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -3584,13 +3590,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -3599,13 +3605,13 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,7 +3634,7 @@
         <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3655,10 +3661,10 @@
         <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3679,13 @@
         <v>23934</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -3688,13 +3694,13 @@
         <v>22820</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3703,13 +3709,13 @@
         <v>46753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3730,13 @@
         <v>60815</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -3739,13 +3745,13 @@
         <v>51670</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
         <v>103</v>
@@ -3754,19 +3760,19 @@
         <v>112485</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>78</v>
@@ -3775,13 +3781,13 @@
         <v>83794</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -3790,13 +3796,13 @@
         <v>63324</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -3805,19 +3811,19 @@
         <v>147118</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>161</v>
@@ -3826,13 +3832,13 @@
         <v>174066</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>153</v>
@@ -3841,13 +3847,13 @@
         <v>159808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>314</v>
@@ -3856,13 +3862,13 @@
         <v>333874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3883,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -3892,13 +3898,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -3907,13 +3913,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,10 +3936,10 @@
         <v>68148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>319</v>
@@ -3948,10 +3954,10 @@
         <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -3960,13 +3966,13 @@
         <v>125948</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3987,13 @@
         <v>123726</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>103</v>
@@ -3996,13 +4002,13 @@
         <v>101727</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>218</v>
@@ -4011,13 +4017,13 @@
         <v>225454</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>29</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4038,13 @@
         <v>305887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H24" s="7">
         <v>229</v>
@@ -4047,13 +4053,13 @@
         <v>228930</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>511</v>
@@ -4062,19 +4068,19 @@
         <v>534816</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>374</v>
@@ -4083,13 +4089,13 @@
         <v>392362</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>271</v>
@@ -4098,13 +4104,13 @@
         <v>276929</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>645</v>
@@ -4113,19 +4119,19 @@
         <v>669291</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>488</v>
@@ -4134,13 +4140,13 @@
         <v>528801</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>350</v>
@@ -4149,13 +4155,13 @@
         <v>367929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>838</v>
@@ -4164,13 +4170,13 @@
         <v>896730</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>233</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4191,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4200,13 +4206,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4215,18 +4221,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6712-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D46D45-AA53-4739-B8F3-CD443A5B2CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F48235A9-E923-4AA8-BF9B-7D1816251DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F162C305-F957-45C6-8C44-27E845175C8A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0DC3F026-09D8-4D25-8165-FCA6217A95F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="361">
   <si>
     <t>Población según si su trabajo requiere que tenga iniciativa en 2012 (Tasa respuesta: 33,79%)</t>
   </si>
@@ -75,1045 +75,1051 @@
     <t>3,92%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que tenga iniciativa en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que tenga iniciativa en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
   </si>
   <si>
     <t>36,57%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920BED5A-D514-4B13-B404-027E7F746144}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CC535B-1E77-4685-B605-3EC594EF4069}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1769,10 +1775,10 @@
         <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>44</v>
@@ -1781,19 +1787,19 @@
         <v>49153</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>39</v>
@@ -1802,13 +1808,13 @@
         <v>40426</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -1817,13 +1823,13 @@
         <v>21910</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -1832,19 +1838,19 @@
         <v>62336</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>92</v>
@@ -1853,13 +1859,13 @@
         <v>94118</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>73</v>
@@ -1868,13 +1874,13 @@
         <v>78043</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>165</v>
@@ -1883,13 +1889,13 @@
         <v>172161</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1910,13 @@
         <v>183104</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>128</v>
@@ -1919,13 +1925,13 @@
         <v>137885</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>303</v>
@@ -1934,18 +1940,18 @@
         <v>320989</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1957,13 +1963,13 @@
         <v>45003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -1972,13 +1978,13 @@
         <v>25750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -1987,13 +1993,13 @@
         <v>70754</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +2014,13 @@
         <v>41664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -2023,13 +2029,13 @@
         <v>28193</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>65</v>
@@ -2038,13 +2044,13 @@
         <v>69857</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2065,13 @@
         <v>165242</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>106</v>
@@ -2074,13 +2080,13 @@
         <v>113393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>265</v>
@@ -2089,19 +2095,19 @@
         <v>278635</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>216</v>
@@ -2110,13 +2116,13 @@
         <v>225121</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>158</v>
@@ -2125,13 +2131,13 @@
         <v>170858</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>374</v>
@@ -2140,19 +2146,19 @@
         <v>395979</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>407</v>
@@ -2161,13 +2167,13 @@
         <v>435528</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>219</v>
@@ -2176,13 +2182,13 @@
         <v>231567</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>626</v>
@@ -2191,13 +2197,13 @@
         <v>667095</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,13 +2218,13 @@
         <v>912558</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>533</v>
@@ -2227,13 +2233,13 @@
         <v>569762</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1397</v>
@@ -2242,18 +2248,18 @@
         <v>1482320</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2265,13 +2271,13 @@
         <v>7366</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2280,13 +2286,13 @@
         <v>6021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -2295,13 +2301,13 @@
         <v>13387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2322,13 @@
         <v>12122</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2331,13 +2337,13 @@
         <v>4917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -2346,13 +2352,13 @@
         <v>17039</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,13 +2373,13 @@
         <v>27441</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -2382,13 +2388,13 @@
         <v>29337</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -2397,19 +2403,19 @@
         <v>56778</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>68</v>
@@ -2418,13 +2424,13 @@
         <v>67516</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -2433,13 +2439,13 @@
         <v>50058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -2448,19 +2454,19 @@
         <v>117573</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>178</v>
@@ -2469,13 +2475,13 @@
         <v>201812</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -2484,13 +2490,13 @@
         <v>142572</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>307</v>
@@ -2499,13 +2505,13 @@
         <v>344384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2526,13 @@
         <v>316257</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>208</v>
@@ -2535,13 +2541,13 @@
         <v>232904</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>494</v>
@@ -2550,13 +2556,13 @@
         <v>549161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2579,13 @@
         <v>59544</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -2588,13 +2594,13 @@
         <v>42872</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -2603,13 +2609,13 @@
         <v>102416</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2630,13 @@
         <v>66341</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -2639,13 +2645,13 @@
         <v>39618</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>96</v>
@@ -2654,13 +2660,13 @@
         <v>105959</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2681,13 @@
         <v>221514</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
@@ -2690,13 +2696,13 @@
         <v>163052</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>358</v>
@@ -2705,19 +2711,19 @@
         <v>384566</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>323</v>
@@ -2726,13 +2732,13 @@
         <v>333062</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>222</v>
@@ -2741,13 +2747,13 @@
         <v>242827</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>545</v>
@@ -2756,19 +2762,19 @@
         <v>575889</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>677</v>
@@ -2777,13 +2783,13 @@
         <v>731459</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>421</v>
@@ -2792,13 +2798,13 @@
         <v>452182</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>1098</v>
@@ -2807,13 +2813,13 @@
         <v>1183641</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2834,13 @@
         <v>1411920</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>869</v>
@@ -2843,13 +2849,13 @@
         <v>940551</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>2194</v>
@@ -2858,18 +2864,18 @@
         <v>2352471</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7BB4B5-C2FB-454A-B019-50898C8C6E0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F71A05-E101-4B56-A140-2D32DB9AE9AB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2905,7 +2911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3012,13 +3018,13 @@
         <v>16605</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3027,13 +3033,13 @@
         <v>8150</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3042,13 +3048,13 @@
         <v>24754</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3069,13 @@
         <v>16930</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3078,13 +3084,13 @@
         <v>7898</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -3093,13 +3099,13 @@
         <v>24828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3120,13 @@
         <v>32138</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3129,13 +3135,13 @@
         <v>23977</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>55</v>
@@ -3144,19 +3150,19 @@
         <v>56114</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>30</v>
@@ -3165,13 +3171,13 @@
         <v>30738</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3180,13 +3186,13 @@
         <v>13664</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -3195,19 +3201,19 @@
         <v>44401</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>42</v>
@@ -3216,13 +3222,13 @@
         <v>46708</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -3231,13 +3237,13 @@
         <v>18399</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -3246,13 +3252,13 @@
         <v>65107</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3273,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3282,13 +3288,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3297,18 +3303,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3320,13 +3326,13 @@
         <v>43544</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3335,13 +3341,13 @@
         <v>38819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -3350,13 +3356,13 @@
         <v>82363</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3377,13 @@
         <v>82863</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>72</v>
@@ -3386,13 +3392,13 @@
         <v>71010</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -3401,13 +3407,13 @@
         <v>153872</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3428,13 @@
         <v>212933</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -3437,13 +3443,13 @@
         <v>153283</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>353</v>
@@ -3452,19 +3458,19 @@
         <v>366217</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>266</v>
@@ -3473,13 +3479,13 @@
         <v>277830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -3488,13 +3494,13 @@
         <v>199941</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>461</v>
@@ -3503,19 +3509,19 @@
         <v>477772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>285</v>
@@ -3524,13 +3530,13 @@
         <v>308027</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>179</v>
@@ -3539,13 +3545,13 @@
         <v>189722</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>464</v>
@@ -3554,13 +3560,13 @@
         <v>497749</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3581,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -3590,13 +3596,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -3605,18 +3611,18 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3628,13 +3634,13 @@
         <v>7999</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3643,13 +3649,13 @@
         <v>10831</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3658,10 +3664,10 @@
         <v>18830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>284</v>
@@ -3709,13 +3715,13 @@
         <v>46753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3736,13 @@
         <v>60815</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -3745,13 +3751,13 @@
         <v>51670</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>103</v>
@@ -3760,19 +3766,19 @@
         <v>112485</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>78</v>
@@ -3781,13 +3787,13 @@
         <v>83794</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -3796,13 +3802,13 @@
         <v>63324</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -3811,10 +3817,10 @@
         <v>147118</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>309</v>
@@ -3823,7 +3829,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>161</v>
@@ -3847,7 +3853,7 @@
         <v>159808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>313</v>
@@ -3883,13 +3889,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -3898,13 +3904,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -3913,13 +3919,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,10 +3945,10 @@
         <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -3951,13 +3957,13 @@
         <v>57800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -3966,13 +3972,13 @@
         <v>125948</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3993,13 @@
         <v>123726</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>103</v>
@@ -4002,13 +4008,13 @@
         <v>101727</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>23</v>
       </c>
       <c r="M23" s="7">
         <v>218</v>
@@ -4041,10 +4047,10 @@
         <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>229</v>
@@ -4053,13 +4059,13 @@
         <v>228930</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>511</v>
@@ -4068,19 +4074,19 @@
         <v>534816</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>374</v>
@@ -4089,13 +4095,13 @@
         <v>392362</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>271</v>
@@ -4104,13 +4110,13 @@
         <v>276929</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>645</v>
@@ -4119,19 +4125,19 @@
         <v>669291</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>488</v>
@@ -4140,13 +4146,13 @@
         <v>528801</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>350</v>
@@ -4155,13 +4161,13 @@
         <v>367929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>838</v>
@@ -4170,13 +4176,13 @@
         <v>896730</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>233</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4197,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4206,13 +4212,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4221,18 +4227,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6712-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F48235A9-E923-4AA8-BF9B-7D1816251DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A08C31-5004-4F2E-A292-FAFC2D79A9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0DC3F026-09D8-4D25-8165-FCA6217A95F6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DECFD660-BFA5-4260-B355-CC726ADCA3D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -1531,7 +1531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CC535B-1E77-4685-B605-3EC594EF4069}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3075DEBE-9864-417C-AB9B-C5F2E09DD538}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2894,7 +2894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F71A05-E101-4B56-A140-2D32DB9AE9AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1759268B-6838-48C3-8C0D-40D5183D5754}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4071,7 +4071,7 @@
         <v>511</v>
       </c>
       <c r="N24" s="7">
-        <v>534816</v>
+        <v>534817</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>340</v>
@@ -4224,7 +4224,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
